--- a/excel/Описание_работ/11/Биология/ALL.xlsx
+++ b/excel/Описание_работ/11/Биология/ALL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13785" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="K74" sqref="K74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,7 +708,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>13</v>
@@ -754,7 +754,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>13</v>
